--- a/biology/Zoologie/Assa_darlingtoni/Assa_darlingtoni.xlsx
+++ b/biology/Zoologie/Assa_darlingtoni/Assa_darlingtoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assa darlingtoni, unique représentant du genre Assa, est une espèce d'amphibiens de la famille des Myobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assa darlingtoni, unique représentant du genre Assa, est une espèce d'amphibiens de la famille des Myobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Australie[1],[2]. Elle se rencontre dans le nord-est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Australie,. Elle se rencontre dans le nord-est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Assa darlingtoni[3], une femelle mature, mesure 19 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Assa darlingtoni, une femelle mature, mesure 19 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Jackson Darlington Jr. (1904–1983)[3]. Le genre Assa,  du latin assa, « étuve, nourrice sèche », a été choisi en référence au fait que les jeunes sont souvent transportés mais ne sont pas nourris[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Jackson Darlington Jr. (1904–1983). Le genre Assa,  du latin assa, « étuve, nourrice sèche », a été choisi en référence au fait que les jeunes sont souvent transportés mais ne sont pas nourris.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1933 : Four new crinine frogs from Australia. Occasional Papers of the Boston Society of Natural History, vol. 8, p. 55-60 (texte intégral).
 Tyler, 1972 : A new genus for the Australian leptodactylid frog Crinia darlingtoni. Zoologische Mededelingen, vol. 47, p. 193-201 (texte intégral).</t>
@@ -635,7 +655,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amphibiens d'Australie</t>
         </is>
